--- a/Research Data.xlsx
+++ b/Research Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8e44b2af47b77aae/2023 Sem 1/Research Methods/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1056" documentId="8_{9D6FD90D-AB2D-47E3-840E-A054F4688459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C20CFF9-EF35-478E-B119-3153DE521002}"/>
+  <xr:revisionPtr revIDLastSave="1212" documentId="8_{9D6FD90D-AB2D-47E3-840E-A054F4688459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8543C3B-000F-4A04-A94F-AB529DCBCF29}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{4C24FB96-CB3F-4A57-A5BD-9604AD3D7998}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="95">
   <si>
     <t>Crunch Time: The Reasons and Effects of Unpaid Overtime in the Games Industry</t>
   </si>
@@ -83,12 +83,6 @@
     <t xml:space="preserve">Sleep Deprivation </t>
   </si>
   <si>
-    <t>Low Quality Software</t>
-  </si>
-  <si>
-    <t>Mental Health</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -137,12 +131,6 @@
     <t>http://jultika.oulu.fi/files/nbnfioulu-202106178507.pdf</t>
   </si>
   <si>
-    <t>Inevitable</t>
-  </si>
-  <si>
-    <t>Burnout/Unsustainable</t>
-  </si>
-  <si>
     <t>Report</t>
   </si>
   <si>
@@ -164,18 +152,12 @@
     <t>Job Insecurity</t>
   </si>
   <si>
-    <t>Salary</t>
-  </si>
-  <si>
     <t>https://www.cotneycl.com/the-dangers-of-crunch-culture-part-2/</t>
   </si>
   <si>
     <t>The Dangers of Crunch Culture Part 2</t>
   </si>
   <si>
-    <t>NDA/Secrecy</t>
-  </si>
-  <si>
     <t>The cruel optimism of “good crunch”: How game industry discourses perpetuate unsustainable labor practices</t>
   </si>
   <si>
@@ -188,15 +170,9 @@
     <t>https://ieeexplore.ieee.org/document/7965428</t>
   </si>
   <si>
-    <t>Pressured/Mandated</t>
-  </si>
-  <si>
     <t>Effects on Employees</t>
   </si>
   <si>
-    <t>Effects on Everyone</t>
-  </si>
-  <si>
     <t>Reasons for Crunch Occuring</t>
   </si>
   <si>
@@ -221,9 +197,6 @@
     <t>Why Do Software Developers Tolerate 'Crunch Time'?</t>
   </si>
   <si>
-    <t>Relationships</t>
-  </si>
-  <si>
     <t>Communication Issues</t>
   </si>
   <si>
@@ -245,9 +218,6 @@
     <t>Theme Frequency</t>
   </si>
   <si>
-    <t>Agile</t>
-  </si>
-  <si>
     <t>https://sdtimes.com/softwaredev/crunch-culture-can-destroy-development-teams/</t>
   </si>
   <si>
@@ -272,7 +242,88 @@
     <t>Exploiting Contractors</t>
   </si>
   <si>
-    <t>Volunteered</t>
+    <t>Burnout/Unsustainable Workloads</t>
+  </si>
+  <si>
+    <t>Adopting Agile Methods</t>
+  </si>
+  <si>
+    <t>Effect On Mental Health</t>
+  </si>
+  <si>
+    <t>Inevitability/Acceptance Of Crunch</t>
+  </si>
+  <si>
+    <t>Low Quality Software/Productivity</t>
+  </si>
+  <si>
+    <t>Presence Of NDA/Secrecy Within Industry</t>
+  </si>
+  <si>
+    <t>Pressured/Mandated Crunch</t>
+  </si>
+  <si>
+    <t>Volunteered Crunch</t>
+  </si>
+  <si>
+    <t>Working On Salary</t>
+  </si>
+  <si>
+    <t>Effect On Relationships</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>MH</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>FC/PM</t>
+  </si>
+  <si>
+    <t>JI</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>LQS</t>
+  </si>
+  <si>
+    <t>P/MC</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>VC</t>
+  </si>
+  <si>
+    <t>WS</t>
   </si>
 </sst>
 </file>
@@ -367,7 +418,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -442,7 +493,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Effects on Employees</a:t>
+              <a:t>Effects of Crunch</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -480,7 +531,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="bar"/>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -509,23 +560,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$27:$D$31</c:f>
+              <c:f>Sheet1!$C$27:$C$31</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Sleep Deprivation </c:v>
+                  <c:v>B</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Relationships</c:v>
+                  <c:v>MH</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Pressured/Mandated</c:v>
+                  <c:v>R</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Mental Health</c:v>
+                  <c:v>LQS</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Burnout/Unsustainable</c:v>
+                  <c:v>SD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -537,7 +588,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>15</c:v>
@@ -546,10 +597,10 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -578,7 +629,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -627,9 +678,10 @@
         <c:axId val="1313907519"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="20"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -647,7 +699,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -679,7 +731,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -852,7 +904,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="bar"/>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -860,7 +912,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$36</c:f>
+              <c:f>Sheet1!$E$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -881,71 +933,77 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$37:$D$45</c:f>
+              <c:f>Sheet1!$C$36:$C$45</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Volunteered</c:v>
+                  <c:v>CI</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Passion/Pride</c:v>
+                  <c:v>CP</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Lack of Unionisation</c:v>
+                  <c:v>EC</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Job Insecurity</c:v>
+                  <c:v>FC/PM</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Inevitable</c:v>
+                  <c:v>I</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Feature Creep/Poor Management</c:v>
+                  <c:v>JI</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Exploiting Contractors</c:v>
+                  <c:v>U</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Consumer Pressure</c:v>
+                  <c:v>P</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Communication Issues</c:v>
+                  <c:v>P/MC</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>VC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$37:$E$45</c:f>
+              <c:f>Sheet1!$E$36:$E$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -974,7 +1032,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1023,9 +1081,10 @@
         <c:axId val="1513117503"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="20"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1043,7 +1102,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1075,7 +1134,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -1189,62 +1248,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-AU"/>
-              <a:t>Theme Frequency</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1266,62 +1270,62 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$E$1:$V$1</c:f>
+              <c:f>Sheet1!$B$26:$B$43</c:f>
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>Burnout/Unsustainable</c:v>
+                  <c:v>A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Mental Health</c:v>
+                  <c:v>B</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Pressured/Mandated</c:v>
+                  <c:v>CI</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Relationships</c:v>
+                  <c:v>CP</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Low Quality Software</c:v>
+                  <c:v>MH</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Feature Creep/Poor Management</c:v>
+                  <c:v>R</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Sleep Deprivation </c:v>
+                  <c:v>EC</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Communication Issues</c:v>
+                  <c:v>FC/PM</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Consumer Pressure</c:v>
+                  <c:v>I</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Inevitable</c:v>
+                  <c:v>JI</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Lack of Unionisation</c:v>
+                  <c:v>U</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Salary</c:v>
+                  <c:v>LQS</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Passion/Pride</c:v>
+                  <c:v>P</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Job Insecurity</c:v>
+                  <c:v>S</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Agile</c:v>
+                  <c:v>P/MC</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Exploiting Contractors</c:v>
+                  <c:v>SD</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Volunteered</c:v>
+                  <c:v>VC</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>NDA/Secrecy</c:v>
+                  <c:v>WS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1333,58 +1337,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1463,6 +1467,7 @@
         <c:axId val="1522239695"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3241,8 +3246,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>451556</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>36924</xdr:rowOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3270,15 +3275,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>964260</xdr:colOff>
+      <xdr:colOff>998897</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>68908</xdr:rowOff>
+      <xdr:rowOff>115454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>435092</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>11758</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>773546</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3609,8 +3614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5CA335-80D7-40A5-912B-09861B1ECF54}">
   <dimension ref="A1:W99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3618,24 +3623,25 @@
     <col min="1" max="1" width="99.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" customWidth="1"/>
-    <col min="5" max="5" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1796875" customWidth="1"/>
-    <col min="9" max="9" width="19.453125" customWidth="1"/>
-    <col min="10" max="10" width="29.54296875" customWidth="1"/>
-    <col min="11" max="11" width="16.54296875" customWidth="1"/>
-    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.36328125" customWidth="1"/>
+    <col min="5" max="5" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.54296875" customWidth="1"/>
+    <col min="13" max="13" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="12.36328125" customWidth="1"/>
-    <col min="19" max="19" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.1796875" customWidth="1"/>
+    <col min="16" max="16" width="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.36328125" customWidth="1"/>
+    <col min="18" max="18" width="36.08984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.36328125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3647,135 +3653,135 @@
         <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="U1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="W1" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
-        <v>30</v>
+      <c r="A2" t="s">
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="S2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="T2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="U2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="V2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="W2" s="10">
         <f t="shared" ref="W2:W21" si="0">COUNTIF(E2:V2,"Y")</f>
@@ -3783,71 +3789,71 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="T3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="U3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="W3" s="10">
         <f t="shared" si="0"/>
@@ -3855,71 +3861,71 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
-        <v>37</v>
+      <c r="A4" t="s">
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="T4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="U4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="W4" s="10">
         <f t="shared" si="0"/>
@@ -3927,71 +3933,71 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
-        <v>45</v>
+      <c r="A5" t="s">
+        <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="T5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="U5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="V5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W5" s="10">
         <f t="shared" si="0"/>
@@ -3999,71 +4005,71 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
-        <v>70</v>
+      <c r="A6" t="s">
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="S6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="T6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="W6" s="10">
         <f t="shared" si="0"/>
@@ -4071,71 +4077,71 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+      <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Q7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="R7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="S7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="U7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="V7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W7" s="10">
         <f t="shared" si="0"/>
@@ -4143,71 +4149,71 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
-        <v>74</v>
+      <c r="A8" t="s">
+        <v>64</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Q8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="R8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="S8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="T8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="U8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W8" s="10">
         <f t="shared" si="0"/>
@@ -4215,71 +4221,71 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
-        <v>66</v>
+      <c r="A9" t="s">
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Q9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="R9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="S9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="T9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W9" s="10">
         <f t="shared" si="0"/>
@@ -4287,71 +4293,71 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
+      <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="T10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="W10" s="10">
         <f t="shared" si="0"/>
@@ -4359,71 +4365,71 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
-        <v>19</v>
+      <c r="A11" t="s">
+        <v>17</v>
       </c>
       <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="R11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="S11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="T11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="W11" s="10">
         <f t="shared" si="0"/>
@@ -4431,71 +4437,71 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
-        <v>43</v>
+      <c r="A12" t="s">
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="R12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="T12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="U12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="W12" s="10">
         <f t="shared" si="0"/>
@@ -4503,71 +4509,71 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Q13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="R13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="S13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="T13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="U13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W13" s="10">
         <f t="shared" si="0"/>
@@ -4575,71 +4581,71 @@
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A14" s="12" t="s">
-        <v>71</v>
+      <c r="A14" t="s">
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Q14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="T14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W14" s="10">
         <f t="shared" si="0"/>
@@ -4647,71 +4653,71 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
-        <v>21</v>
+      <c r="A15" t="s">
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="R15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="S15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="T15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W15" s="10">
         <f t="shared" si="0"/>
@@ -4719,71 +4725,71 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
-        <v>63</v>
+      <c r="A16" t="s">
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="S16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="T16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="U16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="V16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W16" s="10">
         <f t="shared" si="0"/>
@@ -4791,71 +4797,71 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A17" s="12" t="s">
-        <v>59</v>
+      <c r="A17" t="s">
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Q17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="R17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="S17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="T17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="U17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W17" s="10">
         <f t="shared" si="0"/>
@@ -4863,71 +4869,71 @@
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A18" s="12" t="s">
-        <v>55</v>
+      <c r="A18" t="s">
+        <v>47</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Q18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="R18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="T18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W18" s="10">
         <f t="shared" si="0"/>
@@ -4935,71 +4941,71 @@
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
+      <c r="A19" t="s">
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Q19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="R19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="S19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="T19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="V19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W19" s="10">
         <f t="shared" si="0"/>
@@ -5007,71 +5013,71 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A20" s="12" t="s">
-        <v>35</v>
+      <c r="A20" t="s">
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="R20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="S20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="T20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="W20" s="10">
         <f t="shared" si="0"/>
@@ -5079,71 +5085,71 @@
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A21" s="12" t="s">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
         <v>25</v>
       </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
       <c r="D21" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="R21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="S21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="T21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V21" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="W21" s="10">
         <f t="shared" si="0"/>
@@ -5152,82 +5158,82 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="10">
-        <f>COUNTIF(E2:E21,"Y")</f>
+        <f t="shared" ref="E22:V22" si="1">COUNTIF(E2:E21,"Y")</f>
+        <v>5</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="F22" s="10">
-        <f>COUNTIF(F2:F21,"Y")</f>
-        <v>15</v>
-      </c>
       <c r="G22" s="10">
-        <f>COUNTIF(G2:G21,"Y")</f>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="H22" s="10">
-        <f>COUNTIF(H2:H21,"Y")</f>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="I22" s="10">
-        <f>COUNTIF(I2:I21,"Y")</f>
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J22" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="K22" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L22" s="10">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="M22" s="10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="N22" s="10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="O22" s="10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="P22" s="10">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="J22" s="10">
-        <f>COUNTIF(J2:J21,"Y")</f>
-        <v>11</v>
-      </c>
-      <c r="K22" s="10">
-        <f>COUNTIF(K2:K21,"Y")</f>
+      <c r="Q22" s="10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="R22" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="S22" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="T22" s="10">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L22" s="10">
-        <f>COUNTIF(L2:L21,"Y")</f>
+      <c r="U22" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="V22" s="10">
+        <f t="shared" si="1"/>
         <v>9</v>
-      </c>
-      <c r="M22" s="10">
-        <f>COUNTIF(M2:M21,"Y")</f>
-        <v>9</v>
-      </c>
-      <c r="N22" s="10">
-        <f>COUNTIF(N2:N21,"Y")</f>
-        <v>9</v>
-      </c>
-      <c r="O22" s="10">
-        <f>COUNTIF(O2:O21,"Y")</f>
-        <v>9</v>
-      </c>
-      <c r="P22" s="10">
-        <f>COUNTIF(P2:P21,"Y")</f>
-        <v>9</v>
-      </c>
-      <c r="Q22" s="10">
-        <f>COUNTIF(Q2:Q21,"Y")</f>
-        <v>8</v>
-      </c>
-      <c r="R22" s="10">
-        <f>COUNTIF(R2:R21,"Y")</f>
-        <v>7</v>
-      </c>
-      <c r="S22" s="10">
-        <f>COUNTIF(S2:S21,"Y")</f>
-        <v>5</v>
-      </c>
-      <c r="T22" s="10">
-        <f>COUNTIF(T2:T21,"Y")</f>
-        <v>5</v>
-      </c>
-      <c r="U22" s="10">
-        <f>COUNTIF(U2:U21,"Y")</f>
-        <v>5</v>
-      </c>
-      <c r="V22" s="10">
-        <f>COUNTIF(V2:V21,"Y")</f>
-        <v>4</v>
       </c>
       <c r="W22" s="11">
         <f>SUM(W2:W21)</f>
@@ -5235,25 +5241,49 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
       <c r="D26" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="E27">
         <f>INDEX($E$22:$V$22, MATCH(D27,$E$1:$V$1, 0))</f>
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E28">
         <f>INDEX($E$22:$V$22, MATCH(D28,$E$1:$V$1, 0))</f>
@@ -5261,8 +5291,17 @@
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="E29">
         <f>INDEX($E$22:$V$22, MATCH(D29,$E$1:$V$1, 0))</f>
@@ -5270,165 +5309,290 @@
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E30">
         <f>INDEX($E$22:$V$22, MATCH(D30,$E$1:$V$1, 0))</f>
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E31">
         <f>INDEX($E$22:$V$22, MATCH(D31,$E$1:$V$1, 0))</f>
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B32" s="7"/>
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34">
-        <f t="shared" ref="E34:E51" si="1">INDEX($E$22:$V$22, MATCH(D34,$E$1:$V$1, 0))</f>
-        <v>12</v>
+      <c r="A34" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D36" s="2" t="s">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" t="s">
         <v>52</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>53</v>
+      <c r="E36">
+        <f t="shared" ref="E36:E45" si="2">INDEX($E$22:$V$22, MATCH(D36,$E$1:$V$1, 0))</f>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" t="s">
+        <v>83</v>
+      </c>
       <c r="D37" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="E37">
-        <f>INDEX($E$22:$V$22, MATCH(D37,$E$1:$V$1, 0))</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
+        <v>86</v>
+      </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E38">
-        <f>INDEX($E$22:$V$22, MATCH(D38,$E$1:$V$1, 0))</f>
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="7"/>
+      <c r="A39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
       <c r="D39" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="E39">
-        <f>INDEX($E$22:$V$22, MATCH(D39,$E$1:$V$1, 0))</f>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" t="s">
+        <v>79</v>
+      </c>
       <c r="D40" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E40">
-        <f>INDEX($E$22:$V$22, MATCH(D40,$E$1:$V$1, 0))</f>
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" t="s">
+        <v>88</v>
+      </c>
       <c r="D41" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E41">
-        <f>INDEX($E$22:$V$22, MATCH(D41,$E$1:$V$1, 0))</f>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" t="s">
+        <v>89</v>
+      </c>
       <c r="D42" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="E42">
-        <f>INDEX($E$22:$V$22, MATCH(D42,$E$1:$V$1, 0))</f>
-        <v>11</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" t="s">
+        <v>80</v>
+      </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="E43">
-        <f>INDEX($E$22:$V$22, MATCH(D43,$E$1:$V$1, 0))</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C44" t="s">
+        <v>91</v>
+      </c>
       <c r="D44" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="E44">
-        <f>INDEX($E$22:$V$22, MATCH(D44,$E$1:$V$1, 0))</f>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C45" t="s">
+        <v>93</v>
+      </c>
       <c r="D45" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="E45">
-        <f>INDEX($E$22:$V$22, MATCH(D45,$E$1:$V$1, 0))</f>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D47" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C48" t="s">
+        <v>77</v>
+      </c>
       <c r="D48" t="s">
         <v>68</v>
       </c>
       <c r="E48">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E48:E50" si="3">INDEX($E$22:$V$22, MATCH(D48,$E$1:$V$1, 0))</f>
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C49" t="s">
+        <v>94</v>
+      </c>
       <c r="D49" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="E49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C50" t="s">
+        <v>81</v>
+      </c>
       <c r="D50" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="E50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -5436,8 +5600,8 @@
       <c r="A99" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D37:E45">
-    <sortCondition descending="1" ref="D36:D45"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D36:E45">
+    <sortCondition ref="D36:D45"/>
   </sortState>
   <conditionalFormatting sqref="E2:V21">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="N">
